--- a/biology/Botanique/Lamium_amplexicaule/Lamium_amplexicaule.xlsx
+++ b/biology/Botanique/Lamium_amplexicaule/Lamium_amplexicaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium amplexicaule, le Lamier amplexicaule, est une espèce de plantes herbacées de la famille des Lamiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est commune, depuis le Nord de l'Afrique jusqu'en Asie. On la trouve depuis le niveau de la mer, en France  jusqu'à 1 200 mètres, occasionnelle plus haut, au Tibet jusqu'à 3 900 mètres.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle parfois prostrée, parfois érigée mais ne dépassant pas les 25 cm de hauteur. Elle est caractérisée par des feuilles inférieures pétiolées et des feuilles supérieures sessiles embrassantes. Cette espèce est hermaphrodite et présente des états cleistogames et chasmogames.
 </t>
@@ -573,9 +589,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultures, pelouses et friches [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultures, pelouses et friches .
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Liste des synonymes[2]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium amplexicaule
 Pollichia amplexicaulis (L.) Willd., Fl. Berol. Prodr.: 198 (1787).
